--- a/src/Producto Terminado.xlsx
+++ b/src/Producto Terminado.xlsx
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>CH855</t>
   </si>
   <si>
-    <t>Bulto de Charola 8x55 50 pzas 10 paquetes</t>
-  </si>
-  <si>
     <t>P16</t>
   </si>
   <si>
@@ -59,7 +56,19 @@
     <t>P17</t>
   </si>
   <si>
-    <t>Bulto de Charola 8x55 50 pzas 10 paquetes Great Value</t>
+    <t>Tarima Charola 8x55 50 pzas 10 paquetes</t>
+  </si>
+  <si>
+    <t>Tarima Charola 8x55 50 pzas 10 paquetes Great Value</t>
+  </si>
+  <si>
+    <t>CH857</t>
+  </si>
+  <si>
+    <t>P18</t>
+  </si>
+  <si>
+    <t>Tarima Charola 8x55 50 pzas 10 paquetes Oxxo</t>
   </si>
 </sst>
 </file>
@@ -474,7 +483,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,22 +495,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -512,21 +521,21 @@
         <v>751095336</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>1000</v>
       </c>
       <c r="E2" s="5">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>751095337</v>
@@ -538,19 +547,31 @@
         <v>1000</v>
       </c>
       <c r="E3" s="5">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>751095331</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
